--- a/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
+++ b/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
@@ -13,8 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="List1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="438" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +28,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Licenční klíče Správce školy</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+  <si>
+    <t>Přehrání nahrávek</t>
+  </si>
+  <si>
+    <t>Přehrání zvuku</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Popisky řádků</t>
+  </si>
+  <si>
+    <t>Celkový součet</t>
+  </si>
+  <si>
+    <t>_student</t>
+  </si>
+  <si>
+    <t>_studyGroup</t>
+  </si>
+  <si>
+    <t>_course</t>
+  </si>
+  <si>
+    <t>_level</t>
+  </si>
+  <si>
+    <t>_lesson</t>
+  </si>
+  <si>
+    <t>_maxScore</t>
+  </si>
+  <si>
+    <t>_score</t>
+  </si>
+  <si>
+    <t>_elapsed</t>
+  </si>
+  <si>
+    <t>_recording</t>
+  </si>
+  <si>
+    <t>_playRecording</t>
+  </si>
+  <si>
+    <t>_play</t>
+  </si>
+  <si>
+    <t>Skore</t>
+  </si>
+  <si>
+    <t>Čas výuky</t>
+  </si>
+  <si>
+    <t>Nahrávek</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>yyy</t>
   </si>
 </sst>
 </file>
@@ -69,14 +145,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -87,6 +188,191 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42259.91000891204" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
+  <cacheSource type="worksheet">
+    <worksheetSource name="all"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="_student" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="_studyGroup" numFmtId="0">
+      <sharedItems count="2">
+        <s v="yyy"/>
+        <s v="Pokročilí1 - 3.A (2015/2016) (učitel Pavel Zika)" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="_course" numFmtId="0">
+      <sharedItems count="1">
+        <s v="English"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="_level" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="_lesson" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="_maxScore" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="400"/>
+    </cacheField>
+    <cacheField name="_score" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="300"/>
+    </cacheField>
+    <cacheField name="_elapsed" numFmtId="46">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:10:00" maxDate="1899-12-30T00:10:00"/>
+    </cacheField>
+    <cacheField name="_recording" numFmtId="46">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T01:10:00" maxDate="1899-12-30T01:10:00"/>
+    </cacheField>
+    <cacheField name="_playRecording" numFmtId="46">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T02:10:00" maxDate="1899-12-30T02:10:00"/>
+    </cacheField>
+    <cacheField name="_play" numFmtId="46">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T03:10:00" maxDate="1899-12-30T03:10:00"/>
+    </cacheField>
+    <cacheField name="_countSkore" numFmtId="0" formula="IF(_maxScore=0,0,SUM(_score)/SUM(_maxScore))" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
+  <r>
+    <s v="xxx"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="1"/>
+    <s v="A2"/>
+    <n v="400"/>
+    <n v="300"/>
+    <d v="1899-12-30T00:10:00"/>
+    <d v="1899-12-30T01:10:00"/>
+    <d v="1899-12-30T02:10:00"/>
+    <d v="1899-12-30T03:10:00"/>
+  </r>
+  <r>
+    <s v="xxx"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="0"/>
+    <s v="A1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:10:00"/>
+    <d v="1899-12-30T01:10:00"/>
+    <d v="1899-12-30T02:10:00"/>
+    <d v="1899-12-30T03:10:00"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="438" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="B10:G13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item m="1" x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Skore" fld="11" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Čas výuky" fld="7" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Nahrávek" fld="8" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Přehrání nahrávek" fld="9" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Přehrání zvuku" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="4" selected="0">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,13 +650,271 @@
     <col min="2" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>400</v>
+      </c>
+      <c r="G2" s="3">
+        <v>300</v>
+      </c>
+      <c r="H2" s="4">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I2" s="4">
+        <v>4.8611111111111098E-2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>9.0277777777777804E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.131944444444444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3">
         <v>0</v>
       </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4.8611111111111098E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>9.0277777777777804E-2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.131944444444444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B10:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.2638888888888889</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E13" s="8">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.2638888888888889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
+++ b/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
@@ -9,15 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="List1" sheetId="2" r:id="rId2"/>
+    <sheet name="studydetails" sheetId="1" r:id="rId1"/>
+    <sheet name="studyblocks" sheetId="3" r:id="rId2"/>
+    <sheet name="Studijní bloky" sheetId="4" r:id="rId3"/>
+    <sheet name="Přehled" sheetId="2" r:id="rId4"/>
+    <sheet name="Detaily" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="studyblocks" localSheetId="1">studyblocks!$A$1:$D$2</definedName>
+    <definedName name="studydetails" localSheetId="0">studydetails!$A$1:$K$3</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="438" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId6"/>
+    <pivotCache cacheId="13" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Přehrání nahrávek</t>
   </si>
@@ -51,9 +59,6 @@
     <t>A1</t>
   </si>
   <si>
-    <t>Popisky řádků</t>
-  </si>
-  <si>
     <t>Celkový součet</t>
   </si>
   <si>
@@ -99,10 +104,34 @@
     <t>Nahrávek</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>yyy</t>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>Celkem Počet</t>
+  </si>
+  <si>
+    <t>Celkem Procent</t>
+  </si>
+  <si>
+    <t>Počet</t>
+  </si>
+  <si>
+    <t>Procent</t>
+  </si>
+  <si>
+    <t>grp1</t>
+  </si>
+  <si>
+    <t>grp2</t>
+  </si>
+  <si>
+    <t>stud1</t>
+  </si>
+  <si>
+    <t>stud2</t>
+  </si>
+  <si>
+    <t>_learnphase</t>
   </si>
 </sst>
 </file>
@@ -145,31 +174,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
@@ -191,18 +230,21 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42259.91000891204" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42260.387558101851" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
   <cacheSource type="worksheet">
-    <worksheetSource name="all"/>
+    <worksheetSource name="studydetails" sheet="studydetails"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="_student" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="stud1"/>
+        <s v="stud2"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="_studyGroup" numFmtId="0">
       <sharedItems count="2">
-        <s v="yyy"/>
-        <s v="Pokročilí1 - 3.A (2015/2016) (učitel Pavel Zika)" u="1"/>
+        <s v="grp1"/>
+        <s v="grp2"/>
       </sharedItems>
     </cacheField>
     <cacheField name="_course" numFmtId="0">
@@ -211,10 +253,16 @@
       </sharedItems>
     </cacheField>
     <cacheField name="_level" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="1"/>
+        <s v="0"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="_lesson" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="A2"/>
+        <s v="A1"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="_maxScore" numFmtId="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="400"/>
@@ -244,14 +292,48 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42260.387558449074" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+  <cacheSource type="worksheet">
+    <worksheetSource name="studyblocks" sheet="studyblocks"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="_student" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="_studyGroup" numFmtId="0">
+      <sharedItems count="1">
+        <s v="sss"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="_course" numFmtId="0">
+      <sharedItems count="1">
+        <s v="sss"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="_learnphase" numFmtId="0">
+      <sharedItems count="1">
+        <s v="sss"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="_countSkore" numFmtId="0" formula="IF(#NAME?=0,0,SUM(#NAME?)/SUM(#NAME?))" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
   <r>
-    <s v="xxx"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="1"/>
-    <s v="A2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="400"/>
     <n v="300"/>
     <d v="1899-12-30T00:10:00"/>
@@ -260,11 +342,11 @@
     <d v="1899-12-30T03:10:00"/>
   </r>
   <r>
-    <s v="xxx"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="0"/>
-    <s v="A1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="0"/>
     <d v="1899-12-30T00:10:00"/>
@@ -275,18 +357,98 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+  <r>
+    <s v="sss"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="438" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="B10:G13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="B10:F14" firstHeaderRow="0" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="3"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Počet" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Procent" fld="0" subtotal="count" showDataAs="percentOfRow" baseField="2" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="B10:G14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="2">
-        <item m="1" x="1"/>
         <item x="0"/>
+        <item x="1"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
       </items>
@@ -305,8 +467,11 @@
     <field x="2"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
+      <x/>
+    </i>
+    <i r="1">
       <x/>
     </i>
     <i r="1">
@@ -354,6 +519,136 @@
       </pivotArea>
     </format>
     <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="4" selected="0">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="B10:G17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item sd="0" x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="5">
+    <field x="2"/>
+    <field x="1"/>
+    <field x="3"/>
+    <field x="4"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Skore" fld="11" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Čas výuky" fld="7" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Nahrávek" fld="8" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Přehrání nahrávek" fld="9" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Přehrání zvuku" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -640,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,45 +947,45 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -722,10 +1017,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -828,15 +1123,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B10:G13"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:G13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B10:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B10:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -845,17 +1273,14 @@
   </cols>
   <sheetData>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
@@ -865,52 +1290,212 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7">
         <v>0.75</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.13194444444444445</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.13194444444444445</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E14" s="6">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F14" s="6">
         <v>0.18055555555555555</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G14" s="6">
         <v>0.2638888888888889</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B10:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7">
         <v>0.75</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D15" s="6">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.13194444444444445</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.13194444444444445</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E17" s="6">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F17" s="6">
         <v>0.18055555555555555</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G17" s="6">
         <v>0.2638888888888889</v>
       </c>
     </row>

--- a/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
+++ b/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="studydetails" sheetId="1" r:id="rId1"/>
     <sheet name="studyblocks" sheetId="3" r:id="rId2"/>
-    <sheet name="Studijní bloky" sheetId="4" r:id="rId3"/>
-    <sheet name="Přehled" sheetId="2" r:id="rId4"/>
-    <sheet name="Detaily" sheetId="5" r:id="rId5"/>
+    <sheet name="Studijní bloky - počet" sheetId="4" r:id="rId3"/>
+    <sheet name="Studijní bloky - procenta" sheetId="6" r:id="rId4"/>
+    <sheet name="Přehled Studijních skupin" sheetId="2" r:id="rId5"/>
+    <sheet name="Detaily dle Studijnch skupin" sheetId="5" r:id="rId6"/>
+    <sheet name="Detaily dle Studentů" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="studyblocks" localSheetId="1">studyblocks!$A$1:$D$2</definedName>
@@ -24,8 +26,8 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId6"/>
-    <pivotCache cacheId="13" r:id="rId7"/>
+    <pivotCache cacheId="8" r:id="rId8"/>
+    <pivotCache cacheId="13" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,13 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
-  <si>
-    <t>Přehrání nahrávek</t>
-  </si>
-  <si>
-    <t>Přehrání zvuku</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
   <si>
     <t>English</t>
   </si>
@@ -101,18 +97,9 @@
     <t>Čas výuky</t>
   </si>
   <si>
-    <t>Nahrávek</t>
-  </si>
-  <si>
     <t>sss</t>
   </si>
   <si>
-    <t>Celkem Počet</t>
-  </si>
-  <si>
-    <t>Celkem Procent</t>
-  </si>
-  <si>
     <t>Počet</t>
   </si>
   <si>
@@ -132,6 +119,15 @@
   </si>
   <si>
     <t>_learnphase</t>
+  </si>
+  <si>
+    <t>Vlastní nahrávky</t>
+  </si>
+  <si>
+    <t>Přehráno nahrávek</t>
+  </si>
+  <si>
+    <t>Přehráno zvuku</t>
   </si>
 </sst>
 </file>
@@ -174,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -199,11 +195,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
     </dxf>
@@ -230,7 +257,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42260.387558101851" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42260.66781111111" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
   <cacheSource type="worksheet">
     <worksheetSource name="studydetails" sheet="studydetails"/>
   </cacheSource>
@@ -293,7 +320,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42260.387558449074" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42260.667811689818" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource name="studyblocks" sheet="studyblocks"/>
   </cacheSource>
@@ -370,7 +397,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="B10:F14" firstHeaderRow="0" firstDataRow="2" firstDataCol="1"/>
+  <location ref="B10:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -405,27 +432,78 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="2">
+  <colFields count="1">
     <field x="3"/>
-    <field x="-2"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="2">
     <i>
       <x/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
   </colItems>
-  <dataFields count="2">
+  <dataFields count="1">
     <dataField name="Počet" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="B10:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
     <dataField name="Procent" fld="0" subtotal="count" showDataAs="percentOfRow" baseField="2" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -437,7 +515,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="B10:G14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -504,12 +582,12 @@
   <dataFields count="5">
     <dataField name="Skore" fld="11" baseField="0" baseItem="0" numFmtId="9"/>
     <dataField name="Čas výuky" fld="7" baseField="2" baseItem="0" numFmtId="46"/>
-    <dataField name="Nahrávek" fld="8" baseField="2" baseItem="0" numFmtId="46"/>
-    <dataField name="Přehrání nahrávek" fld="9" baseField="2" baseItem="0" numFmtId="46"/>
-    <dataField name="Přehrání zvuku" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Vlastní nahrávky" fld="8" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Přehráno nahrávek" fld="9" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Přehráno zvuku" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -518,7 +596,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -540,7 +618,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="B10:G17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -634,12 +712,12 @@
   <dataFields count="5">
     <dataField name="Skore" fld="11" baseField="0" baseItem="0" numFmtId="9"/>
     <dataField name="Čas výuky" fld="7" baseField="2" baseItem="0" numFmtId="46"/>
-    <dataField name="Nahrávek" fld="8" baseField="2" baseItem="0" numFmtId="46"/>
-    <dataField name="Přehrání nahrávek" fld="9" baseField="2" baseItem="0" numFmtId="46"/>
-    <dataField name="Přehrání zvuku" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Vlastní nahrávky" fld="8" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Přehráno nahrávek" fld="9" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Přehráno zvuku" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -648,7 +726,132 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="4" selected="0">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="B10:G16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item sd="0" x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="2"/>
+    <field x="3"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Skore" fld="11" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Čas výuky" fld="7" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Vlastní nahrávky" fld="8" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Přehráno nahrávek" fld="9" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Přehráno zvuku" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -947,54 +1150,54 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F2" s="3">
         <v>400</v>
@@ -1017,19 +1220,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1139,30 +1342,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1172,80 +1375,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B10:F14"/>
+  <dimension ref="B10:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1256,10 +1439,74 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B10:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,31 +1514,31 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
@@ -1301,7 +1548,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7">
         <v>0.75</v>
@@ -1321,7 +1568,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1341,7 +1588,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="7">
         <v>0.75</v>
@@ -1364,12 +1611,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,31 +1624,31 @@
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
@@ -1411,7 +1658,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
@@ -1421,7 +1668,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
@@ -1431,7 +1678,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6"/>
@@ -1441,7 +1688,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" s="7">
         <v>0.75</v>
@@ -1461,7 +1708,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1481,7 +1728,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" s="7">
         <v>0.75</v>
@@ -1496,6 +1743,136 @@
         <v>0.18055555555555555</v>
       </c>
       <c r="G17" s="6">
+        <v>0.2638888888888889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B10:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.13194444444444445</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="6">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.13194444444444445</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="G16" s="6">
         <v>0.2638888888888889</v>
       </c>
     </row>

--- a/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
+++ b/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LMCom\rew\Web4\BlendedAPI\vyzva\Server\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Pz-w8virtual\d\LMCom\rew\Web4\BlendedAPI\vyzva\Server\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="studydetails" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId8"/>
+    <pivotCache cacheId="6" r:id="rId8"/>
     <pivotCache cacheId="13" r:id="rId9"/>
   </pivotCaches>
   <extLst>
@@ -200,19 +200,7 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -243,6 +231,12 @@
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -257,7 +251,41 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42260.66781111111" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42261.67635509259" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+  <cacheSource type="worksheet">
+    <worksheetSource name="studyblocks" sheet="studyblocks"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="_student" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="_studyGroup" numFmtId="0">
+      <sharedItems count="1">
+        <s v="sss"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="_course" numFmtId="0">
+      <sharedItems count="1">
+        <s v="sss"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="_learnphase" numFmtId="0">
+      <sharedItems count="1">
+        <s v="sss"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="_countSkore" numFmtId="0" formula="IF(#NAME?=0,0,SUM(#NAME?)/SUM(#NAME?))" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42261.676355555559" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
   <cacheSource type="worksheet">
     <worksheetSource name="studydetails" sheet="studydetails"/>
   </cacheSource>
@@ -319,41 +347,18 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42260.667811689818" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
-  <cacheSource type="worksheet">
-    <worksheetSource name="studyblocks" sheet="studyblocks"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="_student" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="_studyGroup" numFmtId="0">
-      <sharedItems count="1">
-        <s v="sss"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="_course" numFmtId="0">
-      <sharedItems count="1">
-        <s v="sss"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="_learnphase" numFmtId="0">
-      <sharedItems count="1">
-        <s v="sss"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="_countSkore" numFmtId="0" formula="IF(#NAME?=0,0,SUM(#NAME?)/SUM(#NAME?))" databaseField="0"/>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+  <r>
+    <s v="sss"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
   <r>
     <x v="0"/>
@@ -384,19 +389,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
-  <r>
-    <s v="sss"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="B10:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
@@ -456,7 +450,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="B10:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
@@ -516,7 +510,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="B10:G14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -587,7 +581,7 @@
     <dataField name="Přehráno zvuku" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="13">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -596,7 +590,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -619,7 +613,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="B10:G17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -717,7 +711,7 @@
     <dataField name="Přehráno zvuku" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="11">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -726,7 +720,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -749,7 +743,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="B10:G16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -758,12 +752,7 @@
         <item x="1"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item sd="0" x="1"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0" sortType="ascending" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
@@ -775,12 +764,7 @@
         <item x="0"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="2">
-        <item x="1"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0" sortType="ascending" defaultSubtotal="0"/>
     <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
@@ -842,7 +826,7 @@
     <dataField name="Přehráno zvuku" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -851,7 +835,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -1377,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1755,7 +1739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
+++ b/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Pz-w8virtual\d\LMCom\rew\Web4\BlendedAPI\vyzva\Server\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="studydetails" sheetId="1" r:id="rId1"/>
-    <sheet name="studyblocks" sheetId="3" r:id="rId2"/>
-    <sheet name="Studijní bloky - počet" sheetId="4" r:id="rId3"/>
-    <sheet name="Studijní bloky - procenta" sheetId="6" r:id="rId4"/>
-    <sheet name="Přehled Studijních skupin" sheetId="2" r:id="rId5"/>
-    <sheet name="Detaily dle Studijnch skupin" sheetId="5" r:id="rId6"/>
-    <sheet name="Detaily dle Studentů" sheetId="7" r:id="rId7"/>
+    <sheet name="studydetails" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="studyblocks" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Úvod" sheetId="8" r:id="rId3"/>
+    <sheet name="Přehled Studijních bloků" sheetId="4" r:id="rId4"/>
+    <sheet name="Přehled Studijních bloků v %" sheetId="6" r:id="rId5"/>
+    <sheet name="Detaily dle Studentů" sheetId="7" r:id="rId6"/>
+    <sheet name="Přehled Studijních skupin" sheetId="2" r:id="rId7"/>
+    <sheet name="Detaily dle Studijních skupin" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="studyblocks" localSheetId="1">studyblocks!$A$1:$D$2</definedName>
@@ -26,8 +27,8 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId8"/>
-    <pivotCache cacheId="13" r:id="rId9"/>
+    <pivotCache cacheId="6" r:id="rId9"/>
+    <pivotCache cacheId="13" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,22 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
   <si>
     <t>Celkový součet</t>
   </si>
@@ -91,31 +77,7 @@
     <t>_play</t>
   </si>
   <si>
-    <t>Skore</t>
-  </si>
-  <si>
     <t>Čas výuky</t>
-  </si>
-  <si>
-    <t>sss</t>
-  </si>
-  <si>
-    <t>Počet</t>
-  </si>
-  <si>
-    <t>Procent</t>
-  </si>
-  <si>
-    <t>grp1</t>
-  </si>
-  <si>
-    <t>grp2</t>
-  </si>
-  <si>
-    <t>stud1</t>
-  </si>
-  <si>
-    <t>stud2</t>
   </si>
   <si>
     <t>_learnphase</t>
@@ -129,12 +91,346 @@
   <si>
     <t>Přehráno zvuku</t>
   </si>
+  <si>
+    <t>(prázdné)</t>
+  </si>
+  <si>
+    <t>Skóre</t>
+  </si>
+  <si>
+    <t>Detaily dle Studijních skupin</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Detaily dle Studentů</t>
+  </si>
+  <si>
+    <t>Průběžné výsledky studia</t>
+  </si>
+  <si>
+    <t>Na listech tohoto souboru naleznete přehled o výuce včetně následujících detailů:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - kolik vteřin zvuku student nahrál v rámci audio-orální metody</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - čas, strávený studentem při poslechu nahrávek rodilých mluvčích</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - skóre, dosažené ve všech cvičeních všech testů a lekcí</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - pokrok ve studiu a mnoho dalších údajů.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Na tomto listě naleznete informace o počtech studentů v jednotlivých </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Studijních blocích</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V případě, že jste </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Správce školy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, zde vidíte všechny </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Studijní skupiny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Poklikáním na některé hodnoty v tabulce, se vám do nového listu otevřou detailní informace o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Studentech,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kterých se hodnota týká.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Na tomto listě můžete srovnávat jednotlivé </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Studenty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> z hlediska skóre, času výuky, vlastních nahrávek, přehraných nahrávek a přehraných zvuků.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Na tomto listě můžete srovnávat jednotlivé </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Studijní skupiny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> z hlediska skóre, času výuky, vlastních nahrávek, přehraných nahrávek a přehraných zvuků.</t>
+    </r>
+  </si>
+  <si>
+    <t>Přehled Studijních bloků</t>
+  </si>
+  <si>
+    <t>Přehled Studijních bloků v procentech</t>
+  </si>
+  <si>
+    <t>Přehled Studijních skupin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Na tomto listě můžete srovnávat </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Studijní skupiny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> z hlediska skóre, času výuky, vlastních nahrávek, přehraných nahrávek a přehraných zvuků. Navíc máte informaci o tom, v jakém </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Studijním bloku</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Studenti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ve </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Studijní skupině</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nacházejí.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V případě, že jste </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Učitel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, zde vidíte informace o svých </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Studijních skupinách.</t>
+    </r>
+  </si>
+  <si>
+    <t>Před započetím práce s tímto souborem může být potřeba kliknout na tlačítko "Povolit úpravy". Toto tlačítko se nachází v horní části obrazovky a vypadá podobně jako na obrázku níže.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +443,46 @@
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -170,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -192,33 +528,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
     </dxf>
@@ -250,28 +586,3118 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[StudyAll.xlsx]Přehled Studijních bloků!Kontingenční tabulka 1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>Graf k přehledu </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="cs-CZ" b="1"/>
+              <a:t>Studijních</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="cs-CZ" b="1" baseline="0"/>
+              <a:t> bloků</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Přehled Studijních bloků'!$C$10:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(prázdné)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Přehled Studijních bloků'!$B$12:$B$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Přehled Studijních bloků'!$C$12:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="216470088"/>
+        <c:axId val="216470480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="216470088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216470480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="216470480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216470088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[StudyAll.xlsx]Přehled Studijních bloků v %!Kontingenční tabulka 1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>Graf k přehledu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="cs-CZ" baseline="0"/>
+              <a:t> Studijních bloků v procentech</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Přehled Studijních bloků v %'!$C$10:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(prázdné)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Přehled Studijních bloků v %'!$B$12:$B$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Přehled Studijních bloků v %'!$C$12:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="216469696"/>
+        <c:axId val="216464208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="216469696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216464208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="216464208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216469696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[StudyAll.xlsx]Přehled Studijních skupin!Kontingenční tabulka 3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Přehled Studijních skupin'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Skóre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Přehled Studijních skupin'!$B$11:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Přehled Studijních skupin'!$C$11:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Přehled Studijních skupin'!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Čas výuky</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Přehled Studijních skupin'!$B$11:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Přehled Studijních skupin'!$D$11:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm:ss</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Přehled Studijních skupin'!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vlastní nahrávky</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Přehled Studijních skupin'!$B$11:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Přehled Studijních skupin'!$E$11:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm:ss</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Přehled Studijních skupin'!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Přehráno nahrávek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Přehled Studijních skupin'!$B$11:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Přehled Studijních skupin'!$F$11:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm:ss</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Přehled Studijních skupin'!$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Přehráno zvuku</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Přehled Studijních skupin'!$B$11:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(prázdné)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Přehled Studijních skupin'!$G$11:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm:ss</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="216466952"/>
+        <c:axId val="216465776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="216466952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216465776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="216465776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216466952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>465448</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obrázek 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2552700"/>
+          <a:ext cx="10219048" cy="257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>985837</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graf 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42261.67635509259" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42262.638771990743" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource name="studyblocks" sheet="studyblocks"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="_student" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="_studyGroup" numFmtId="0">
-      <sharedItems count="1">
-        <s v="sss"/>
+      <sharedItems containsNonDate="0" containsBlank="1" count="2">
+        <m/>
+        <s v="sss" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="_course" numFmtId="0">
-      <sharedItems count="1">
-        <s v="sss"/>
+      <sharedItems containsNonDate="0" containsBlank="1" count="2">
+        <m/>
+        <s v="sss" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="_learnphase" numFmtId="0">
-      <sharedItems count="1">
-        <s v="sss"/>
+      <sharedItems containsNonDate="0" containsBlank="1" count="2">
+        <m/>
+        <s v="sss" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="_countSkore" numFmtId="0" formula="IF(#NAME?=0,0,SUM(#NAME?)/SUM(#NAME?))" databaseField="0"/>
@@ -285,57 +3711,62 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42261.676355555559" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42262.638772222221" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
   <cacheSource type="worksheet">
     <worksheetSource name="studydetails" sheet="studydetails"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="_student" numFmtId="0">
-      <sharedItems count="2">
-        <s v="stud1"/>
-        <s v="stud2"/>
+      <sharedItems containsNonDate="0" containsBlank="1" count="3">
+        <m/>
+        <s v="stud1" u="1"/>
+        <s v="stud2" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="_studyGroup" numFmtId="0">
-      <sharedItems count="2">
-        <s v="grp1"/>
-        <s v="grp2"/>
+      <sharedItems containsNonDate="0" containsBlank="1" count="3">
+        <m/>
+        <s v="grp2" u="1"/>
+        <s v="grp1" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="_course" numFmtId="0">
-      <sharedItems count="1">
-        <s v="English"/>
+      <sharedItems containsNonDate="0" containsBlank="1" count="2">
+        <m/>
+        <s v="English" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="_level" numFmtId="0">
-      <sharedItems count="2">
-        <s v="1"/>
-        <s v="0"/>
+      <sharedItems containsNonDate="0" containsBlank="1" count="3">
+        <m/>
+        <s v="0" u="1"/>
+        <s v="1" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="_lesson" numFmtId="0">
-      <sharedItems count="2">
-        <s v="A2"/>
-        <s v="A1"/>
+      <sharedItems containsNonDate="0" containsBlank="1" count="3">
+        <m/>
+        <s v="A1" u="1"/>
+        <s v="A2" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="_maxScore" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="400"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="_score" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="300"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="_elapsed" numFmtId="46">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:10:00" maxDate="1899-12-30T00:10:00"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="_recording" numFmtId="46">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T01:10:00" maxDate="1899-12-30T01:10:00"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="_playRecording" numFmtId="46">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T02:10:00" maxDate="1899-12-30T02:10:00"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="_play" numFmtId="46">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T03:10:00" maxDate="1899-12-30T03:10:00"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="_countSkore" numFmtId="0" formula="IF(_maxScore=0,0,SUM(_score)/SUM(_maxScore))" databaseField="0"/>
   </cacheFields>
@@ -350,7 +3781,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
   <r>
-    <s v="sss"/>
+    <m/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -366,46 +3797,49 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="400"/>
-    <n v="300"/>
-    <d v="1899-12-30T00:10:00"/>
-    <d v="1899-12-30T01:10:00"/>
-    <d v="1899-12-30T02:10:00"/>
-    <d v="1899-12-30T03:10:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <d v="1899-12-30T00:10:00"/>
-    <d v="1899-12-30T01:10:00"/>
-    <d v="1899-12-30T02:10:00"/>
-    <d v="1899-12-30T03:10:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
   <location ref="B10:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="1">
+      <items count="2">
+        <item m="1" x="1"/>
         <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="1">
+      <items count="2">
+        <item m="1" x="1"/>
         <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="1">
+      <items count="2">
+        <item m="1" x="1"/>
         <item x="0"/>
       </items>
     </pivotField>
@@ -417,10 +3851,10 @@
   </rowFields>
   <rowItems count="3">
     <i>
-      <x/>
+      <x v="1"/>
     </i>
     <i r="1">
-      <x/>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -431,15 +3865,29 @@
   </colFields>
   <colItems count="2">
     <i>
-      <x/>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Počet" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="." fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -450,22 +3898,25 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
   <location ref="B10:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="1">
+      <items count="2">
+        <item m="1" x="1"/>
         <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="1">
+      <items count="2">
+        <item m="1" x="1"/>
         <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="1">
+      <items count="2">
+        <item m="1" x="1"/>
         <item x="0"/>
       </items>
     </pivotField>
@@ -477,10 +3928,10 @@
   </rowFields>
   <rowItems count="3">
     <i>
-      <x/>
+      <x v="1"/>
     </i>
     <i r="1">
-      <x/>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -491,15 +3942,29 @@
   </colFields>
   <colItems count="2">
     <i>
-      <x/>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Procent" fld="0" subtotal="count" showDataAs="percentOfRow" baseField="2" baseItem="0" numFmtId="10"/>
+    <dataField name="." fld="0" subtotal="count" showDataAs="percentOfRow" baseField="2" baseItem="0" numFmtId="10"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -510,23 +3975,31 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="B10:G14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
-    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="1">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
         <item x="0"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" sortType="ascending" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="2">
+        <item m="1" x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" sortType="ascending" defaultSubtotal="0"/>
     <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
@@ -535,19 +4008,20 @@
     <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="3">
     <field x="2"/>
-    <field x="1"/>
+    <field x="3"/>
+    <field x="0"/>
   </rowFields>
   <rowItems count="4">
     <i>
-      <x/>
+      <x v="1"/>
     </i>
     <i r="1">
-      <x/>
+      <x v="2"/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -574,14 +4048,14 @@
     </i>
   </colItems>
   <dataFields count="5">
-    <dataField name="Skore" fld="11" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Skóre" fld="11" baseField="0" baseItem="0" numFmtId="9"/>
     <dataField name="Čas výuky" fld="7" baseField="2" baseItem="0" numFmtId="46"/>
     <dataField name="Vlastní nahrávky" fld="8" baseField="2" baseItem="0" numFmtId="46"/>
     <dataField name="Přehráno nahrávek" fld="9" baseField="2" baseItem="0" numFmtId="46"/>
     <dataField name="Přehráno zvuku" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="11">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -590,7 +4064,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -613,38 +4087,25 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="B10:G17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+  <location ref="B10:G13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item sd="0" x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="1">
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="1"/>
+      <items count="3">
+        <item m="1" x="2"/>
+        <item m="1" x="1"/>
         <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="2">
-        <item x="1"/>
+        <item m="1" x="1"/>
         <item x="0"/>
       </items>
     </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
@@ -653,31 +4114,16 @@
     <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="5">
+  <rowFields count="2">
     <field x="2"/>
     <field x="1"/>
-    <field x="3"/>
-    <field x="4"/>
-    <field x="0"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="3">
     <i>
-      <x/>
+      <x v="1"/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="4">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -704,14 +4150,14 @@
     </i>
   </colItems>
   <dataFields count="5">
-    <dataField name="Skore" fld="11" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Skóre" fld="11" baseField="0" baseItem="0" numFmtId="9"/>
     <dataField name="Čas výuky" fld="7" baseField="2" baseItem="0" numFmtId="46"/>
     <dataField name="Vlastní nahrávky" fld="8" baseField="2" baseItem="0" numFmtId="46"/>
     <dataField name="Přehráno nahrávek" fld="9" baseField="2" baseItem="0" numFmtId="46"/>
     <dataField name="Přehráno zvuku" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="9">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -720,7 +4166,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -733,6 +4179,53 @@
       </pivotArea>
     </format>
   </formats>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -744,27 +4237,36 @@
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="B10:G16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="B10:G15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="2">
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="3">
+        <item m="1" x="2"/>
+        <item sd="0" m="1" x="1"/>
         <item x="0"/>
-        <item x="1"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" sortType="ascending" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="1">
+      <items count="2">
+        <item m="1" x="1"/>
         <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="1"/>
+      <items count="3">
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
         <item x="0"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" sortType="ascending" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
     <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
@@ -773,26 +4275,24 @@
     <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="3">
+  <rowFields count="4">
     <field x="2"/>
+    <field x="1"/>
     <field x="3"/>
-    <field x="0"/>
+    <field x="4"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="5">
     <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i r="2">
-      <x/>
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -819,14 +4319,14 @@
     </i>
   </colItems>
   <dataFields count="5">
-    <dataField name="Skore" fld="11" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Skóre" fld="11" baseField="0" baseItem="0" numFmtId="9"/>
     <dataField name="Čas výuky" fld="7" baseField="2" baseItem="0" numFmtId="46"/>
     <dataField name="Vlastní nahrávky" fld="8" baseField="2" baseItem="0" numFmtId="46"/>
     <dataField name="Přehráno nahrávek" fld="9" baseField="2" baseItem="0" numFmtId="46"/>
     <dataField name="Přehráno zvuku" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -835,7 +4335,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -1123,7 +4623,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,108 +4634,64 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>400</v>
-      </c>
-      <c r="G2" s="3">
-        <v>300</v>
-      </c>
-      <c r="H2" s="4">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="I2" s="4">
-        <v>4.8611111111111098E-2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>9.0277777777777804E-2</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.131944444444444</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="I3" s="4">
-        <v>4.8611111111111098E-2</v>
-      </c>
-      <c r="J3" s="4">
-        <v>9.0277777777777804E-2</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0.131944444444444</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1310,11 +4766,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1326,30 +4780,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1359,138 +4799,504 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B10:D14"/>
+  <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B10:D14"/>
+  <dimension ref="B1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>21</v>
+      <c r="B10" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C13" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="9" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="9" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B10:G14"/>
+  <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,26 +5309,65 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
@@ -1532,80 +5377,48 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D12" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F12" s="6">
-        <v>9.0277777777777776E-2</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.13194444444444445</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>23</v>
+      <c r="B13" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E13" s="6">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F13" s="6">
-        <v>9.0277777777777776E-2</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.13194444444444445</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E14" s="6">
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.18055555555555555</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.2638888888888889</v>
-      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B10:G17"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="A1:XFD1048576"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -1613,26 +5426,100 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
@@ -1642,7 +5529,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
@@ -1652,7 +5539,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
@@ -1662,205 +5549,32 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>24</v>
+      <c r="B15" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C15" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D15" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E15" s="6">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F15" s="6">
-        <v>9.0277777777777776E-2</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.13194444444444445</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F16" s="6">
-        <v>9.0277777777777776E-2</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.13194444444444445</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E17" s="6">
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0.18055555555555555</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.2638888888888889</v>
-      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B10:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E13" s="6">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F13" s="6">
-        <v>9.0277777777777776E-2</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.13194444444444445</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D15" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E15" s="6">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F15" s="6">
-        <v>9.0277777777777776E-2</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.13194444444444445</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E16" s="6">
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.18055555555555555</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.2638888888888889</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
+++ b/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
@@ -5,30 +5,30 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Pz-w8virtual\d\LMCom\rew\Web4\BlendedAPI\vyzva\Server\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="1000" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="studydetails" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="studyblocks" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="Úvod" sheetId="8" r:id="rId3"/>
-    <sheet name="Přehled Studijních bloků" sheetId="4" r:id="rId4"/>
-    <sheet name="Přehled Studijních bloků v %" sheetId="6" r:id="rId5"/>
+    <sheet name="Pokrok ve studiu" sheetId="4" r:id="rId4"/>
+    <sheet name="Pokrok ve studiu v %" sheetId="6" r:id="rId5"/>
     <sheet name="Detaily dle Studentů" sheetId="7" r:id="rId6"/>
     <sheet name="Přehled Studijních skupin" sheetId="2" r:id="rId7"/>
     <sheet name="Detaily dle Studijních skupin" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="studyblocks" localSheetId="1">studyblocks!$A$1:$D$2</definedName>
-    <definedName name="studydetails" localSheetId="0">studydetails!$A$1:$K$3</definedName>
+    <definedName name="studyblocks" localSheetId="1">studyblocks!$A$1:$D$1</definedName>
+    <definedName name="studydetails" localSheetId="0">studydetails!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId9"/>
-    <pivotCache cacheId="13" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="62">
   <si>
     <t>Celkový součet</t>
   </si>
@@ -92,345 +92,149 @@
     <t>Přehráno zvuku</t>
   </si>
   <si>
-    <t>(prázdné)</t>
+    <t>Skóre</t>
   </si>
   <si>
-    <t>Skóre</t>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Průběžné výsledky studia</t>
+  </si>
+  <si>
+    <t>Přehled Studijních skupin</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>_exerciseCount</t>
+  </si>
+  <si>
+    <t>_exerciseSum</t>
+  </si>
+  <si>
+    <t>YYY</t>
+  </si>
+  <si>
+    <t>Pokročilí1 - 3.A (2015/2016) (učitel Honza Medvěd)</t>
+  </si>
+  <si>
+    <t>Angličtina</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rozřazovací test, část A2</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Odstudovaných cvičení</t>
+  </si>
+  <si>
+    <t>Odstudováno</t>
+  </si>
+  <si>
+    <t>Důležité upozornění: Před započetím práce s tímto souborem je potřeba kliknout na tlačítko "Povolit úpravy" nahoře na obrazovce.</t>
+  </si>
+  <si>
+    <t>V tomto souboru naleznete aktuální přehledné i detailní informace o průběhu studia.</t>
+  </si>
+  <si>
+    <t>TIP: rozbalte x sbalte údaje pomocí malých tlačítek + nebo -. Získáte tak kumulované x detailní informace.</t>
+  </si>
+  <si>
+    <t>TIP: dvojklikem (poklepáním) na čísla v tabulce se vám na novém listu ukáže detailní seznam údajů, na základě kterých bylo číslo vypočítáno</t>
+  </si>
+  <si>
+    <t>Význam některých sloupců v poskytnutých tabulkách</t>
+  </si>
+  <si>
+    <t>Název sloupce</t>
+  </si>
+  <si>
+    <t>Význam</t>
+  </si>
+  <si>
+    <t>Skore</t>
+  </si>
+  <si>
+    <t>Průměrné skore za všechna vyhodnotitelná cvičení.</t>
+  </si>
+  <si>
+    <t>Celkový čas, strávený výukou</t>
+  </si>
+  <si>
+    <t>Celková délka nahrávek studenta do mikrofonu</t>
+  </si>
+  <si>
+    <t>Celková délka poslechu vlastních nahrávek (důležitý ukazatel při používání audio-orální metody)</t>
+  </si>
+  <si>
+    <t>Celková délka poslechu nahrávek rodilých mluvčích</t>
+  </si>
+  <si>
+    <t>Kolik cvičení (stránek výuky) student odstudoval</t>
+  </si>
+  <si>
+    <t>Pokrok ve studiu</t>
+  </si>
+  <si>
+    <t>1. čeká se na rozřazovací test =&gt; 2. rozřazovací test hotov =&gt; 3. vstupní test hotov =&gt; 4. hotov Studijní blok 1 =&gt; 5. hotov Studijní blok 2  =&gt; ... =&gt; 7. kurz hotov</t>
+  </si>
+  <si>
+    <t>Pro každého studenta se zaznamenává pouze nejvyšší dosažený pokrok, z tabulky je proto vidět, kolik studentů ve výuce zaostává, kolik je jich hodně vepředu apod.</t>
+  </si>
+  <si>
+    <t>TIP: dvojklikem (poklepáním) na číslo v tabulce se vám v novém listu ukáže seznam studentů, kteří dosáhli požadovaného pokroku.</t>
+  </si>
+  <si>
+    <t>Pokrok ve studiu v %</t>
+  </si>
+  <si>
+    <t>Pro každého studenta se zaznamenává pouze nejvyšší dosažený pokrok, z tabulky je proto vidět, kolik procent studentů ve výuce zaostává, kolik je jich hodně vepředu apod.</t>
+  </si>
+  <si>
+    <t>Detaily dle studentů</t>
+  </si>
+  <si>
+    <t>Tabulka poskytuje podrobné údaje o studiu</t>
+  </si>
+  <si>
+    <t>Údaje jsou seskupeny dle Kurzu =&gt; Studijní skupiny</t>
+  </si>
+  <si>
+    <t>Údaje jsou seskupeny dle Kurzu =&gt; Studijní skupiny =&gt; Kurzu =&gt; Jazykové úrovně =&gt; Studenta</t>
+  </si>
+  <si>
+    <t>Kolik procent cvičení z celého kurzu student odstudoval</t>
   </si>
   <si>
     <t>Detaily dle Studijních skupin</t>
   </si>
   <si>
-    <t>.</t>
+    <t>Údaje jsou seskupeny dle Kurzu =&gt; Jazykové úrovně =&gt; Studenta.</t>
   </si>
   <si>
-    <t>Detaily dle Studentů</t>
+    <t>Tabulka ukazuje  počet studentů, kteří dosáhli určitého pokroku. Pokrok při studiu kurzu se ukazuje v této posloupnosti:</t>
   </si>
   <si>
-    <t>Průběžné výsledky studia</t>
-  </si>
-  <si>
-    <t>Na listech tohoto souboru naleznete přehled o výuce včetně následujících detailů:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - kolik vteřin zvuku student nahrál v rámci audio-orální metody</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - čas, strávený studentem při poslechu nahrávek rodilých mluvčích</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - skóre, dosažené ve všech cvičeních všech testů a lekcí</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - pokrok ve studiu a mnoho dalších údajů.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Na tomto listě naleznete informace o počtech studentů v jednotlivých </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Studijních blocích</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">V případě, že jste </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Správce školy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, zde vidíte všechny </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Studijní skupiny</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Poklikáním na některé hodnoty v tabulce, se vám do nového listu otevřou detailní informace o </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Studentech,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> kterých se hodnota týká.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Na tomto listě můžete srovnávat jednotlivé </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Studenty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> z hlediska skóre, času výuky, vlastních nahrávek, přehraných nahrávek a přehraných zvuků.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Na tomto listě můžete srovnávat jednotlivé </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Studijní skupiny</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> z hlediska skóre, času výuky, vlastních nahrávek, přehraných nahrávek a přehraných zvuků.</t>
-    </r>
-  </si>
-  <si>
-    <t>Přehled Studijních bloků</t>
-  </si>
-  <si>
-    <t>Přehled Studijních bloků v procentech</t>
-  </si>
-  <si>
-    <t>Přehled Studijních skupin</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Na tomto listě můžete srovnávat </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Studijní skupiny</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> z hlediska skóre, času výuky, vlastních nahrávek, přehraných nahrávek a přehraných zvuků. Navíc máte informaci o tom, v jakém </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Studijním bloku</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> se </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Studenti</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ve </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Studijní skupině</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> nacházejí.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">V případě, že jste </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Učitel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, zde vidíte informace o svých </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Studijních skupinách.</t>
-    </r>
-  </si>
-  <si>
-    <t>Před započetím práce s tímto souborem může být potřeba kliknout na tlačítko "Povolit úpravy". Toto tlačítko se nachází v horní části obrazovky a vypadá podobně jako na obrázku níže.</t>
+    <t>Tabulka měří procento studentů, kteří dosáhli určitého pokroku v této sedmiprvkové posloupnosti:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,38 +267,79 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="5" tint="-0.499984740745262"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
+      <sz val="16"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -502,11 +347,283 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -530,31 +647,81 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="LM Normální" xfId="1"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
     </dxf>
@@ -562,10 +729,646 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
@@ -600,7 +1403,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[StudyAll.xlsx]Přehled Studijních bloků!Kontingenční tabulka 1</c:name>
+    <c:name>[studyall.xlsx]Pokrok ve studiu!Kontingenční tabulka 1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -629,13 +1432,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="cs-CZ" b="1"/>
-              <a:t>Studijních</a:t>
+              <a:t>Pokrok ve studiu</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="cs-CZ" b="1" baseline="0"/>
-              <a:t> bloků</a:t>
-            </a:r>
-            <a:endParaRPr lang="cs-CZ" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -686,6 +1484,21 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -698,11 +1511,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Přehled Studijních bloků'!$C$10:$C$11</c:f>
+              <c:f>'Pokrok ve studiu'!$C$10:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(prázdné)</c:v>
+                  <c:v>a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -719,17 +1532,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Přehled Studijních bloků'!$B$12:$B$14</c:f>
+              <c:f>'Pokrok ve studiu'!$B$12:$B$14</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="1"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(prázdné)</c:v>
+                    <c:v>a</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(prázdné)</c:v>
+                    <c:v>a</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -737,10 +1550,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Přehled Studijních bloků'!$C$12:$C$14</c:f>
+              <c:f>'Pokrok ve studiu'!$C$12:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -755,11 +1571,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="216470088"/>
-        <c:axId val="216470480"/>
+        <c:axId val="330451912"/>
+        <c:axId val="330456224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216470088"/>
+        <c:axId val="330451912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +1618,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216470480"/>
+        <c:crossAx val="330456224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -810,7 +1626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216470480"/>
+        <c:axId val="330456224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +1677,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216470088"/>
+        <c:crossAx val="330451912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -969,8 +1785,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[StudyAll.xlsx]Přehled Studijních bloků v %!Kontingenční tabulka 1</c:name>
-    <c:fmtId val="0"/>
+    <c:name>[studyall.xlsx]Pokrok ve studiu v %!Kontingenční tabulka 2</c:name>
+    <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -994,13 +1810,9 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="cs-CZ"/>
-              <a:t>Graf k přehledu</a:t>
+              <a:t>Graf k přehledu Pokrok ve studiu v %</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="cs-CZ" baseline="0"/>
-              <a:t> Studijních bloků v procentech</a:t>
-            </a:r>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1063,11 +1875,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Přehled Studijních bloků v %'!$C$10:$C$11</c:f>
+              <c:f>'Pokrok ve studiu v %'!$C$10:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(prázdné)</c:v>
+                  <c:v>a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1084,17 +1896,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Přehled Studijních bloků v %'!$B$12:$B$14</c:f>
+              <c:f>'Pokrok ve studiu v %'!$B$12:$B$14</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="1"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(prázdné)</c:v>
+                    <c:v>a</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(prázdné)</c:v>
+                    <c:v>a</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1102,12 +1914,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Přehled Studijních bloků v %'!$C$12:$C$14</c:f>
+              <c:f>'Pokrok ve studiu v %'!$C$12:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1123,11 +1935,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="216469696"/>
-        <c:axId val="216464208"/>
+        <c:axId val="330453872"/>
+        <c:axId val="330449952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216469696"/>
+        <c:axId val="330453872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,7 +1982,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216464208"/>
+        <c:crossAx val="330449952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1178,7 +1990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216464208"/>
+        <c:axId val="330449952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1230,9 +2042,10 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216469696"/>
+        <c:crossAx val="330453872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1336,8 +2149,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[StudyAll.xlsx]Přehled Studijních skupin!Kontingenční tabulka 3</c:name>
-    <c:fmtId val="0"/>
+    <c:name>[studyall.xlsx]Přehled Studijních skupin!Kontingenční tabulka 4</c:name>
+    <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
@@ -1417,6 +2230,36 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1429,7 +2272,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Přehled Studijních skupin'!$C$10</c:f>
+              <c:f>'Přehled Studijních skupin'!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1450,17 +2293,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Přehled Studijních skupin'!$B$11:$B$13</c:f>
+              <c:f>'Přehled Studijních skupin'!$B$10:$B$12</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="1"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(prázdné)</c:v>
+                    <c:v>Pokročilí1 - 3.A (2015/2016) (učitel Honza Medvěd)</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(prázdné)</c:v>
+                    <c:v>Angličtina</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1468,7 +2311,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Přehled Studijních skupin'!$C$11:$C$13</c:f>
+              <c:f>'Přehled Studijních skupin'!$C$10:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1484,7 +2327,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Přehled Studijních skupin'!$D$10</c:f>
+              <c:f>'Přehled Studijních skupin'!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1505,17 +2348,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Přehled Studijních skupin'!$B$11:$B$13</c:f>
+              <c:f>'Přehled Studijních skupin'!$B$10:$B$12</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="1"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(prázdné)</c:v>
+                    <c:v>Pokročilí1 - 3.A (2015/2016) (učitel Honza Medvěd)</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(prázdné)</c:v>
+                    <c:v>Angličtina</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1523,10 +2366,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Přehled Studijních skupin'!$D$11:$D$13</c:f>
+              <c:f>'Přehled Studijních skupin'!$D$10:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5462962962962961E-4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1536,7 +2382,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Přehled Studijních skupin'!$E$10</c:f>
+              <c:f>'Přehled Studijních skupin'!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1557,17 +2403,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Přehled Studijních skupin'!$B$11:$B$13</c:f>
+              <c:f>'Přehled Studijních skupin'!$B$10:$B$12</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="1"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(prázdné)</c:v>
+                    <c:v>Pokročilí1 - 3.A (2015/2016) (učitel Honza Medvěd)</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(prázdné)</c:v>
+                    <c:v>Angličtina</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1575,10 +2421,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Přehled Studijních skupin'!$E$11:$E$13</c:f>
+              <c:f>'Přehled Studijních skupin'!$E$10:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1588,7 +2437,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Přehled Studijních skupin'!$F$10</c:f>
+              <c:f>'Přehled Studijních skupin'!$F$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1609,17 +2458,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Přehled Studijních skupin'!$B$11:$B$13</c:f>
+              <c:f>'Přehled Studijních skupin'!$B$10:$B$12</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="1"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(prázdné)</c:v>
+                    <c:v>Pokročilí1 - 3.A (2015/2016) (učitel Honza Medvěd)</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(prázdné)</c:v>
+                    <c:v>Angličtina</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1627,10 +2476,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Přehled Studijních skupin'!$F$11:$F$13</c:f>
+              <c:f>'Přehled Studijních skupin'!$F$10:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1640,7 +2492,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Přehled Studijních skupin'!$G$10</c:f>
+              <c:f>'Přehled Studijních skupin'!$G$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1661,17 +2513,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Přehled Studijních skupin'!$B$11:$B$13</c:f>
+              <c:f>'Přehled Studijních skupin'!$B$10:$B$12</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="1"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(prázdné)</c:v>
+                    <c:v>Pokročilí1 - 3.A (2015/2016) (učitel Honza Medvěd)</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(prázdné)</c:v>
+                    <c:v>Angličtina</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1679,10 +2531,125 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Přehled Studijních skupin'!$G$11:$G$13</c:f>
+              <c:f>'Přehled Studijních skupin'!$G$10:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Přehled Studijních skupin'!$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Odstudovaných cvičení</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Přehled Studijních skupin'!$B$10:$B$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Pokročilí1 - 3.A (2015/2016) (učitel Honza Medvěd)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Angličtina</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Přehled Studijních skupin'!$H$10:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Přehled Studijních skupin'!$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Odstudováno</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Přehled Studijních skupin'!$B$10:$B$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Pokročilí1 - 3.A (2015/2016) (učitel Honza Medvěd)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Angličtina</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Přehled Studijních skupin'!$I$10:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1697,11 +2664,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="216466952"/>
-        <c:axId val="216465776"/>
+        <c:axId val="330455048"/>
+        <c:axId val="330450736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216466952"/>
+        <c:axId val="330455048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +2711,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216465776"/>
+        <c:crossAx val="330450736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,10 +2719,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216465776"/>
+        <c:axId val="330450736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1804,7 +2770,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216466952"/>
+        <c:crossAx val="330455048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3527,49 +4493,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>465448</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66643</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obrázek 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="2552700"/>
-          <a:ext cx="10219048" cy="257143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3603,24 +4526,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graf 1"/>
+        <xdr:cNvPr id="3" name="Graf 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3638,24 +4561,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graf 1"/>
+        <xdr:cNvPr id="3" name="Graf 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3674,29 +4597,32 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42262.638771990743" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42264.551723611112" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource name="studyblocks" sheet="studyblocks"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="_student" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="_studyGroup" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="2">
-        <m/>
+      <sharedItems containsBlank="1" count="3">
+        <s v="a"/>
+        <m u="1"/>
         <s v="sss" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="_course" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="2">
-        <m/>
+      <sharedItems containsBlank="1" count="3">
+        <s v="a"/>
+        <m u="1"/>
         <s v="sss" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="_learnphase" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="2">
-        <m/>
+      <sharedItems containsBlank="1" count="3">
+        <s v="a"/>
+        <m u="1"/>
         <s v="sss" u="1"/>
       </sharedItems>
     </cacheField>
@@ -3711,64 +4637,64 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42262.638772222221" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42264.55172372685" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
   <cacheSource type="worksheet">
     <worksheetSource name="studydetails" sheet="studydetails"/>
   </cacheSource>
-  <cacheFields count="12">
+  <cacheFields count="15">
     <cacheField name="_student" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="3">
-        <m/>
-        <s v="stud1" u="1"/>
-        <s v="stud2" u="1"/>
+      <sharedItems count="2">
+        <s v="YYY"/>
+        <s v="XXX"/>
       </sharedItems>
     </cacheField>
     <cacheField name="_studyGroup" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="3">
-        <m/>
-        <s v="grp2" u="1"/>
-        <s v="grp1" u="1"/>
+      <sharedItems count="1">
+        <s v="Pokročilí1 - 3.A (2015/2016) (učitel Honza Medvěd)"/>
       </sharedItems>
     </cacheField>
     <cacheField name="_course" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="2">
-        <m/>
-        <s v="English" u="1"/>
+      <sharedItems count="1">
+        <s v="Angličtina"/>
       </sharedItems>
     </cacheField>
     <cacheField name="_level" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="3">
-        <m/>
-        <s v="0" u="1"/>
-        <s v="1" u="1"/>
+      <sharedItems count="2">
+        <s v="A1"/>
+        <s v="A2"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="_exerciseCount" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="10"/>
+    </cacheField>
     <cacheField name="_lesson" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="3">
-        <m/>
-        <s v="A1" u="1"/>
-        <s v="A2" u="1"/>
+      <sharedItems count="1">
+        <s v="  Rozřazovací test, část A2"/>
       </sharedItems>
     </cacheField>
     <cacheField name="_maxScore" numFmtId="1">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1400" maxValue="1400"/>
     </cacheField>
     <cacheField name="_score" numFmtId="1">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
     <cacheField name="_elapsed" numFmtId="46">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:11" maxDate="1899-12-30T00:00:11"/>
     </cacheField>
     <cacheField name="_recording" numFmtId="46">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-31T00:00:00"/>
     </cacheField>
     <cacheField name="_playRecording" numFmtId="46">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-31T00:00:00"/>
     </cacheField>
     <cacheField name="_play" numFmtId="46">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-31T00:00:00"/>
+    </cacheField>
+    <cacheField name="_exerciseSum" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="200"/>
     </cacheField>
     <cacheField name="_countSkore" numFmtId="0" formula="IF(_maxScore=0,0,SUM(_score)/SUM(_maxScore))" databaseField="0"/>
+    <cacheField name="_doneExsPercent" numFmtId="0" formula="_exerciseCount/_exerciseSum" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -3781,7 +4707,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
   <r>
-    <m/>
+    <s v="a"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -3796,51 +4722,58 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <n v="10"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1400"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:00:11"/>
+    <d v="1899-12-30T00:00:00"/>
+    <d v="1899-12-30T00:00:00"/>
+    <d v="1899-12-30T00:00:00"/>
+    <n v="200"/>
   </r>
   <r>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="1"/>
+    <n v="10"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1400"/>
+    <n v="0"/>
+    <d v="1899-12-30T00:00:11"/>
+    <d v="1899-12-30T00:00:00"/>
+    <d v="1899-12-30T00:00:00"/>
+    <d v="1899-12-30T00:00:00"/>
+    <n v="100"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" fieldListSortAscending="1">
   <location ref="B10:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="2">
+      <items count="3">
+        <item x="0"/>
         <item m="1" x="1"/>
-        <item x="0"/>
+        <item m="1" x="2"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="2">
+      <items count="3">
+        <item x="0"/>
+        <item m="1" x="2"/>
         <item m="1" x="1"/>
-        <item x="0"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="2">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item m="1" x="2"/>
         <item m="1" x="1"/>
-        <item x="0"/>
       </items>
     </pivotField>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -3851,10 +4784,10 @@
   </rowFields>
   <rowItems count="3">
     <i>
-      <x v="1"/>
+      <x/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -3865,7 +4798,7 @@
   </colFields>
   <colItems count="2">
     <i>
-      <x v="1"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -3875,14 +4808,14 @@
     <dataField name="." fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -3898,26 +4831,29 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
   <location ref="B10:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="2">
+      <items count="3">
+        <item m="1" x="2"/>
         <item m="1" x="1"/>
         <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="2">
+      <items count="3">
+        <item x="0"/>
+        <item m="1" x="2"/>
         <item m="1" x="1"/>
-        <item x="0"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="2">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item m="1" x="2"/>
         <item m="1" x="1"/>
-        <item x="0"/>
       </items>
     </pivotField>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -3928,10 +4864,10 @@
   </rowFields>
   <rowItems count="3">
     <i>
-      <x v="1"/>
+      <x/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -3942,7 +4878,7 @@
   </colFields>
   <colItems count="2">
     <i>
-      <x v="1"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -3951,7 +4887,7 @@
   <dataFields count="1">
     <dataField name="." fld="0" subtotal="count" showDataAs="percentOfRow" baseField="2" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -3959,7 +4895,31 @@
             <x v="0"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -3975,30 +4935,28 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="B10:G14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="B7:I13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
+      <items count="2">
         <item x="0"/>
+        <item x="1"/>
       </items>
     </pivotField>
     <pivotField showAll="0" sortType="ascending" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="2">
-        <item m="1" x="1"/>
+      <items count="1">
         <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
+      <items count="2">
+        <item x="1"/>
         <item x="0"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" numFmtId="1" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" sortType="ascending" defaultSubtotal="0"/>
     <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
@@ -4006,6 +4964,8 @@
     <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="3">
@@ -4013,15 +4973,21 @@
     <field x="3"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="6">
     <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="1"/>
     </i>
     <i r="2">
-      <x v="2"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -4030,7 +4996,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="7">
     <i>
       <x/>
     </i>
@@ -4046,16 +5012,24 @@
     <i i="4">
       <x v="4"/>
     </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
   </colItems>
-  <dataFields count="5">
-    <dataField name="Skóre" fld="11" baseField="0" baseItem="0" numFmtId="9"/>
-    <dataField name="Čas výuky" fld="7" baseField="2" baseItem="0" numFmtId="46"/>
-    <dataField name="Vlastní nahrávky" fld="8" baseField="2" baseItem="0" numFmtId="46"/>
-    <dataField name="Přehráno nahrávek" fld="9" baseField="2" baseItem="0" numFmtId="46"/>
-    <dataField name="Přehráno zvuku" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
+  <dataFields count="7">
+    <dataField name="Skóre" fld="13" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Čas výuky" fld="8" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Vlastní nahrávky" fld="9" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Přehráno nahrávek" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Přehráno zvuku" fld="11" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Odstudovaných cvičení" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Odstudováno" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <formats count="2">
-    <format dxfId="5">
+  <formats count="20">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4064,7 +5038,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -4072,6 +5046,185 @@
             <x v="2"/>
             <x v="3"/>
             <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="0" count="0"/>
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="0" count="0"/>
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="0" count="0"/>
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -4087,24 +5240,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
-  <location ref="B10:G13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
+  <location ref="B9:I12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item m="1" x="2"/>
-        <item m="1" x="1"/>
+      <items count="1">
         <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="2">
-        <item m="1" x="1"/>
+      <items count="1">
         <item x="0"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
@@ -4112,6 +5263,8 @@
     <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
@@ -4120,10 +5273,10 @@
   </rowFields>
   <rowItems count="3">
     <i>
-      <x v="1"/>
+      <x/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -4132,7 +5285,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="7">
     <i>
       <x/>
     </i>
@@ -4148,16 +5301,24 @@
     <i i="4">
       <x v="4"/>
     </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
   </colItems>
-  <dataFields count="5">
-    <dataField name="Skóre" fld="11" baseField="0" baseItem="0" numFmtId="9"/>
-    <dataField name="Čas výuky" fld="7" baseField="2" baseItem="0" numFmtId="46"/>
-    <dataField name="Vlastní nahrávky" fld="8" baseField="2" baseItem="0" numFmtId="46"/>
-    <dataField name="Přehráno nahrávek" fld="9" baseField="2" baseItem="0" numFmtId="46"/>
-    <dataField name="Přehráno zvuku" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
+  <dataFields count="7">
+    <dataField name="Skóre" fld="13" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Čas výuky" fld="8" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Vlastní nahrávky" fld="9" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Přehráno nahrávek" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Přehráno zvuku" fld="11" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Odstudovaných cvičení" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Odstudováno" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <formats count="2">
-    <format dxfId="3">
+  <formats count="4">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4166,7 +5327,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -4178,8 +5339,28 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="1" count="0"/>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
   </formats>
-  <chartFormats count="5">
+  <chartFormats count="14">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -4225,6 +5406,87 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4236,34 +5498,34 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="B10:G15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="3">
-        <item m="1" x="2"/>
-        <item sd="0" m="1" x="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="B7:I16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
         <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="2">
-        <item m="1" x="1"/>
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="1">
         <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
+      <items count="2">
+        <item x="1"/>
         <item x="0"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" numFmtId="1" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="3">
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
+      <items count="1">
         <item x="0"/>
       </items>
     </pivotField>
@@ -4273,26 +5535,41 @@
     <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" numFmtId="46" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="4">
+  <rowFields count="5">
     <field x="2"/>
     <field x="1"/>
     <field x="3"/>
-    <field x="4"/>
+    <field x="5"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="9">
     <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="2">
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i r="3">
+      <x/>
     </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="3">
-      <x v="2"/>
+    <i r="4">
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -4301,7 +5578,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="7">
     <i>
       <x/>
     </i>
@@ -4317,16 +5594,24 @@
     <i i="4">
       <x v="4"/>
     </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
   </colItems>
-  <dataFields count="5">
-    <dataField name="Skóre" fld="11" baseField="0" baseItem="0" numFmtId="9"/>
-    <dataField name="Čas výuky" fld="7" baseField="2" baseItem="0" numFmtId="46"/>
-    <dataField name="Vlastní nahrávky" fld="8" baseField="2" baseItem="0" numFmtId="46"/>
-    <dataField name="Přehráno nahrávek" fld="9" baseField="2" baseItem="0" numFmtId="46"/>
-    <dataField name="Přehráno zvuku" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
+  <dataFields count="7">
+    <dataField name="Skóre" fld="13" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="Čas výuky" fld="8" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Vlastní nahrávky" fld="9" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Přehráno nahrávek" fld="10" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Přehráno zvuku" fld="11" baseField="2" baseItem="0" numFmtId="46"/>
+    <dataField name="Odstudovaných cvičení" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Odstudováno" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <formats count="2">
-    <format dxfId="1">
+  <formats count="6">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4335,7 +5620,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -4343,6 +5628,50 @@
             <x v="2"/>
             <x v="3"/>
             <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="1" count="0" selected="0"/>
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="0" selected="0"/>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -4620,10 +5949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4632,7 +5961,7 @@
     <col min="2" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4646,54 +5975,116 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.273148148148148E-4</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.273148148148148E-4</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4706,7 +6097,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4719,7 +6110,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4732,32 +6123,6 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4766,9 +6131,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4792,6 +6159,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4799,782 +6180,1758 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
+    </row>
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="53"/>
+    </row>
+    <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="24"/>
+    </row>
+    <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="57"/>
+      <c r="B12" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+    </row>
+    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D14"/>
+  <dimension ref="B1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="53"/>
+    </row>
+    <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="37"/>
+    </row>
+    <row r="4" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="37"/>
+    </row>
+    <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="37"/>
+    </row>
+    <row r="6" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="37"/>
+    </row>
+    <row r="7" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="40"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D14"/>
+  <dimension ref="B1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="31"/>
+    </row>
+    <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="32"/>
+    </row>
+    <row r="4" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="32"/>
+    </row>
+    <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="32"/>
+    </row>
+    <row r="6" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="32"/>
+    </row>
+    <row r="7" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="32"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R8" s="34"/>
+      <c r="S8" s="32"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="9" t="e">
-        <v>#DIV/0!</v>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G14"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+    </row>
+    <row r="2" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="20"/>
+      <c r="B2" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="C7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="63">
+        <v>0</v>
+      </c>
+      <c r="D10" s="63">
+        <v>1.273148148148148E-4</v>
+      </c>
+      <c r="E10" s="63">
+        <v>0</v>
+      </c>
+      <c r="F10" s="63">
+        <v>0</v>
+      </c>
+      <c r="G10" s="63">
+        <v>0</v>
+      </c>
+      <c r="H10" s="63">
+        <v>10</v>
+      </c>
+      <c r="I10" s="63">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="63">
+        <v>0</v>
+      </c>
+      <c r="D12" s="63">
+        <v>1.273148148148148E-4</v>
+      </c>
+      <c r="E12" s="63">
+        <v>0</v>
+      </c>
+      <c r="F12" s="63">
+        <v>0</v>
+      </c>
+      <c r="G12" s="63">
+        <v>0</v>
+      </c>
+      <c r="H12" s="63">
+        <v>10</v>
+      </c>
+      <c r="I12" s="63">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2.5462962962962961E-4</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>20</v>
+      </c>
+      <c r="I13" s="16">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="14" t="s">
-        <v>21</v>
-      </c>
+    <row r="1" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="23"/>
+    </row>
+    <row r="3" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+    </row>
+    <row r="4" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+    </row>
+    <row r="5" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+    </row>
+    <row r="6" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2.5462962962962961E-4</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>20</v>
+      </c>
+      <c r="I11" s="16">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2.5462962962962961E-4</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>20</v>
+      </c>
+      <c r="I12" s="16">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="14"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+    <row r="2" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="57"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="57"/>
+      <c r="C7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="I7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>17</v>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="D12" s="6">
+        <v>1.273148148148148E-4</v>
+      </c>
+      <c r="E12" s="6">
         <v>0</v>
       </c>
-      <c r="C13" s="7">
+      <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>17</v>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>10</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="8"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>0</v>
+      <c r="H14" s="8"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="6">
+        <v>1.273148148148148E-4</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>10</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2.5462962962962961E-4</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>20</v>
+      </c>
+      <c r="I16" s="16">
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:G3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
+++ b/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Pz-w8virtual\d\LMCom\rew\Web4\BlendedAPI\vyzva\Server\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LMCom\rew\Web4\BlendedAPI\vyzva\Server\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,13 +22,13 @@
     <sheet name="Detaily dle Studijních skupin" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="studyblocks" localSheetId="1">studyblocks!$A$1:$D$1</definedName>
-    <definedName name="studydetails" localSheetId="0">studydetails!$A$1:$M$1</definedName>
+    <definedName name="studyblocks" localSheetId="1">studyblocks!$A$1:$D$2</definedName>
+    <definedName name="studydetails" localSheetId="0">studydetails!$A$1:$M$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="20" r:id="rId9"/>
+    <pivotCache cacheId="27" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -705,7 +705,677 @@
     <cellStyle name="LM Normální" xfId="1"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="60">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="hair">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1437,7 +2107,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1463,7 +2132,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1571,11 +2240,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="330451912"/>
-        <c:axId val="330456224"/>
+        <c:axId val="330690528"/>
+        <c:axId val="330689744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="330451912"/>
+        <c:axId val="330690528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,10 +2284,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330456224"/>
+        <c:crossAx val="330689744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1626,7 +2295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330456224"/>
+        <c:axId val="330689744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,10 +2343,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330451912"/>
+        <c:crossAx val="330690528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1693,7 +2362,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1719,7 +2387,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1749,7 +2417,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1816,7 +2484,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1842,7 +2509,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1935,11 +2602,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="330453872"/>
-        <c:axId val="330449952"/>
+        <c:axId val="330690136"/>
+        <c:axId val="330688176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="330453872"/>
+        <c:axId val="330690136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,10 +2646,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330449952"/>
+        <c:crossAx val="330688176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1990,7 +2657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330449952"/>
+        <c:axId val="330688176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2039,10 +2706,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330453872"/>
+        <c:crossAx val="330690136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2057,7 +2724,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2083,7 +2749,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2113,7 +2779,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2664,11 +3330,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="330455048"/>
-        <c:axId val="330450736"/>
+        <c:axId val="330683864"/>
+        <c:axId val="330685432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="330455048"/>
+        <c:axId val="330683864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,10 +3374,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330450736"/>
+        <c:crossAx val="330685432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2719,7 +3385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330450736"/>
+        <c:axId val="330685432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2767,10 +3433,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330455048"/>
+        <c:crossAx val="330683864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2784,7 +3450,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2810,7 +3475,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2840,7 +3505,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4501,8 +5166,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>985837</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
@@ -4536,8 +5201,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
@@ -4597,7 +5262,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42264.551723611112" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42264.65224236111" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource name="studyblocks" sheet="studyblocks"/>
   </cacheSource>
@@ -4637,7 +5302,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Petr Janeček" refreshedDate="42264.55172372685" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42264.652243055556" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
   <cacheSource type="worksheet">
     <worksheetSource name="studydetails" sheet="studydetails"/>
   </cacheSource>
@@ -4751,7 +5416,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" fieldListSortAscending="1">
   <location ref="B10:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
@@ -4831,7 +5496,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
   <location ref="B10:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
@@ -4935,7 +5600,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="B7:I13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -5029,7 +5694,7 @@
     <dataField name="Odstudováno" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="29">
+    <format dxfId="59">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5038,7 +5703,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="58">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -5050,7 +5715,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="57">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -5062,7 +5727,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="56">
       <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5071,14 +5736,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="55">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="54">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5088,7 +5753,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="53">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1">
@@ -5101,7 +5766,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="52">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5111,7 +5776,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="51">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1">
@@ -5124,14 +5789,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5139,14 +5804,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="48">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="47">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5156,7 +5821,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="46">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1">
@@ -5169,7 +5834,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="45">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5179,7 +5844,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="44">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1">
@@ -5192,14 +5857,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5207,7 +5872,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="0"/>
@@ -5218,7 +5883,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="0"/>
@@ -5240,7 +5905,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 4" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
   <location ref="B9:I12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -5318,7 +5983,7 @@
     <dataField name="Odstudováno" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="9">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5327,7 +5992,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -5339,7 +6004,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="37">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -5350,7 +6015,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="36">
       <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5498,7 +6163,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 5" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="B7:I16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -5611,7 +6276,7 @@
     <dataField name="Odstudováno" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="5">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5620,7 +6285,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -5632,7 +6297,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -5645,7 +6310,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="32">
       <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5654,7 +6319,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="0" selected="0"/>
@@ -5665,7 +6330,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="0" selected="0"/>
@@ -5952,7 +6617,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6134,7 +6799,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6183,7 +6848,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6627,7 +7292,7 @@
   <dimension ref="B1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6826,7 +7491,7 @@
   <dimension ref="B1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7029,7 +7694,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7350,7 +8015,7 @@
   <dimension ref="B1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7614,7 +8279,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
+++ b/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="1000" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="1000" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="studydetails" sheetId="1" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>Celkový součet</t>
   </si>
@@ -143,28 +143,13 @@
     <t>Důležité upozornění: Před započetím práce s tímto souborem je potřeba kliknout na tlačítko "Povolit úpravy" nahoře na obrazovce.</t>
   </si>
   <si>
-    <t>V tomto souboru naleznete aktuální přehledné i detailní informace o průběhu studia.</t>
-  </si>
-  <si>
-    <t>TIP: rozbalte x sbalte údaje pomocí malých tlačítek + nebo -. Získáte tak kumulované x detailní informace.</t>
-  </si>
-  <si>
     <t>TIP: dvojklikem (poklepáním) na čísla v tabulce se vám na novém listu ukáže detailní seznam údajů, na základě kterých bylo číslo vypočítáno</t>
-  </si>
-  <si>
-    <t>Význam některých sloupců v poskytnutých tabulkách</t>
   </si>
   <si>
     <t>Název sloupce</t>
   </si>
   <si>
     <t>Význam</t>
-  </si>
-  <si>
-    <t>Skore</t>
-  </si>
-  <si>
-    <t>Průměrné skore za všechna vyhodnotitelná cvičení.</t>
   </si>
   <si>
     <t>Celkový čas, strávený výukou</t>
@@ -209,9 +194,6 @@
     <t>Údaje jsou seskupeny dle Kurzu =&gt; Studijní skupiny</t>
   </si>
   <si>
-    <t>Údaje jsou seskupeny dle Kurzu =&gt; Studijní skupiny =&gt; Kurzu =&gt; Jazykové úrovně =&gt; Studenta</t>
-  </si>
-  <si>
     <t>Kolik procent cvičení z celého kurzu student odstudoval</t>
   </si>
   <si>
@@ -226,6 +208,28 @@
   <si>
     <t>Tabulka měří procento studentů, kteří dosáhli určitého pokroku v této sedmiprvkové posloupnosti:</t>
   </si>
+  <si>
+    <t>V tomto souboru naleznete aktuální souhrnné i detailní informace o průběhu studia.</t>
+  </si>
+  <si>
+    <t>TIP 2: rozbalte x sbalte údaje pomocí malých tlačítek + nebo -. Získáte tak kumulované x detailní informace.</t>
+  </si>
+  <si>
+    <t>TIP 3: dvojklikem (poklepáním) na čísla v tabulce se vám na novém listu ukáže detailní seznam údajů, na základě kterých bylo číslo vypočítáno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIP 1: postupně procházejte jednotlivé přehledové tabulky, klikáním na záložky ve spodní části okna.
+</t>
+  </si>
+  <si>
+    <t>Průměrné skóre za všechna vyhodnotitelná cvičení.</t>
+  </si>
+  <si>
+    <t>Význam některých sloupců v tabulkách na následujících listech</t>
+  </si>
+  <si>
+    <t>Údaje jsou seskupeny dle Kurzu =&gt; Studijní skupiny =&gt; Jazykové úrovně =&gt; Lekce/Testu =&gt; Studenta</t>
+  </si>
 </sst>
 </file>
 
@@ -234,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,12 +320,6 @@
       <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -699,13 +697,40 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="LM Normální" xfId="1"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="68">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -1385,9 +1410,6 @@
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -2240,11 +2262,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="330690528"/>
-        <c:axId val="330689744"/>
+        <c:axId val="432205304"/>
+        <c:axId val="432211968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="330690528"/>
+        <c:axId val="432205304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,7 +2309,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330689744"/>
+        <c:crossAx val="432211968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2295,7 +2317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330689744"/>
+        <c:axId val="432211968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2346,7 +2368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330690528"/>
+        <c:crossAx val="432205304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2602,11 +2624,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="330690136"/>
-        <c:axId val="330688176"/>
+        <c:axId val="432213144"/>
+        <c:axId val="432214712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="330690136"/>
+        <c:axId val="432213144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2649,7 +2671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330688176"/>
+        <c:crossAx val="432214712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2657,7 +2679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330688176"/>
+        <c:axId val="432214712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2709,7 +2731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330690136"/>
+        <c:crossAx val="432213144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3330,11 +3352,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="330683864"/>
-        <c:axId val="330685432"/>
+        <c:axId val="432207264"/>
+        <c:axId val="432211184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="330683864"/>
+        <c:axId val="432207264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3377,7 +3399,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330685432"/>
+        <c:crossAx val="432211184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3385,7 +3407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330685432"/>
+        <c:axId val="432211184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,7 +3458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330683864"/>
+        <c:crossAx val="432207264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5262,7 +5284,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42264.65224236111" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42265.353114930556" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource name="studyblocks" sheet="studyblocks"/>
   </cacheSource>
@@ -5302,7 +5324,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42264.652243055556" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42265.353115625003" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
   <cacheSource type="worksheet">
     <worksheetSource name="studydetails" sheet="studydetails"/>
   </cacheSource>
@@ -5694,7 +5716,7 @@
     <dataField name="Odstudováno" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="59">
+    <format dxfId="67">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5703,7 +5725,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="66">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -5715,7 +5737,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="65">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -5727,7 +5749,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="64">
       <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5736,14 +5758,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="63">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="62">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5753,7 +5775,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="61">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1">
@@ -5766,7 +5788,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="60">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5776,7 +5798,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="59">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1">
@@ -5789,14 +5811,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5804,14 +5826,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="56">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="55">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5821,7 +5843,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="54">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1">
@@ -5834,7 +5856,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="53">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5844,7 +5866,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="52">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1">
@@ -5857,14 +5879,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5872,7 +5894,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="0"/>
@@ -5883,7 +5905,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="0"/>
@@ -5983,7 +6005,7 @@
     <dataField name="Odstudováno" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="39">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5992,7 +6014,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -6004,7 +6026,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="45">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -6015,7 +6037,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="44">
       <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6275,8 +6297,8 @@
     <dataField name="Odstudovaných cvičení" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Odstudováno" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <formats count="6">
-    <format dxfId="35">
+  <formats count="13">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6285,7 +6307,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -6297,7 +6319,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -6310,16 +6332,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
-      <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="31">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="0" selected="0"/>
@@ -6330,13 +6343,127 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="0" selected="0"/>
           <reference field="2" count="0" selected="0"/>
           <reference field="3" count="1">
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="1" count="0"/>
+          <reference field="2" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="1" count="0" selected="0"/>
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="1" count="0" selected="0"/>
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="6">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="0" selected="0"/>
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="1" count="0" selected="0"/>
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="5">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="1" count="0" selected="0"/>
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="6">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="0" selected="0"/>
+          <reference field="2" count="0" selected="0"/>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -6845,10 +6972,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6905,7 +7032,7 @@
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -6947,9 +7074,9 @@
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="35" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -6970,153 +7097,151 @@
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40"/>
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="37"/>
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
       <c r="T9" s="23"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
+    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="40"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
       <c r="T10" s="23"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="23"/>
-      <c r="T11" s="24"/>
-    </row>
-    <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T11" s="23"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
-      <c r="B12" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
       <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="25"/>
+      <c r="T12" s="24"/>
+    </row>
+    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="57"/>
+      <c r="B13" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="24"/>
       <c r="S13" s="23"/>
       <c r="T13" s="23"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="27"/>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="55"/>
       <c r="R14" s="25"/>
       <c r="S14" s="23"/>
       <c r="T14" s="23"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="24" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -7131,17 +7256,17 @@
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="27"/>
-      <c r="R15" s="23"/>
+      <c r="R15" s="25"/>
       <c r="S15" s="23"/>
       <c r="T15" s="23"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -7162,11 +7287,11 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
@@ -7182,16 +7307,16 @@
       <c r="P17" s="24"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="23"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -7212,11 +7337,11 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -7232,40 +7357,61 @@
       <c r="P19" s="24"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-    </row>
-    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="30"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="27"/>
       <c r="R20" s="23"/>
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="30"/>
       <c r="R21" s="23"/>
       <c r="S21" s="23"/>
       <c r="T21" s="23"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R22" s="23"/>
       <c r="S22" s="23"/>
       <c r="T22" s="23"/>
     </row>
@@ -7280,6 +7426,10 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="S25" s="23"/>
       <c r="T25" s="23"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7309,7 +7459,7 @@
     </row>
     <row r="2" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="51" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -7331,7 +7481,7 @@
     </row>
     <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="35" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -7353,7 +7503,7 @@
     </row>
     <row r="4" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -7375,7 +7525,7 @@
     </row>
     <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -7417,7 +7567,7 @@
     </row>
     <row r="7" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="38" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
@@ -7508,7 +7658,7 @@
     </row>
     <row r="2" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="59" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -7530,7 +7680,7 @@
     </row>
     <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -7552,7 +7702,7 @@
     </row>
     <row r="4" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -7574,7 +7724,7 @@
     </row>
     <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -7616,7 +7766,7 @@
     </row>
     <row r="7" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
@@ -7735,7 +7885,7 @@
     <row r="2" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="20"/>
       <c r="B2" s="51" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -7760,7 +7910,7 @@
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -7785,7 +7935,7 @@
     <row r="4" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -8058,7 +8208,7 @@
     </row>
     <row r="3" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -8081,7 +8231,7 @@
     </row>
     <row r="4" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -8125,7 +8275,7 @@
     </row>
     <row r="6" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -8278,8 +8428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8304,7 +8454,7 @@
     </row>
     <row r="2" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="51" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -8326,7 +8476,7 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -8348,7 +8498,7 @@
     </row>
     <row r="4" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -8467,7 +8617,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
@@ -8479,7 +8629,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
@@ -8515,7 +8665,7 @@
       <c r="H12" s="8">
         <v>10</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>0.1</v>
       </c>
     </row>
@@ -8529,7 +8679,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -8565,7 +8715,7 @@
       <c r="H15" s="8">
         <v>10</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>0.05</v>
       </c>
     </row>

--- a/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
+++ b/Web4/BlendedAPI/vyzva/Server/Excels/StudyAll.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="1000" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="1000" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="studydetails" sheetId="1" state="hidden" r:id="rId1"/>
@@ -27,8 +27,8 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId9"/>
-    <pivotCache cacheId="27" r:id="rId10"/>
+    <pivotCache cacheId="8" r:id="rId9"/>
+    <pivotCache cacheId="13" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -238,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +320,12 @@
       <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -697,13 +703,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="LM Normální" xfId="1"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="37">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
@@ -727,679 +733,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="hair">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2262,11 +1595,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="432205304"/>
-        <c:axId val="432211968"/>
+        <c:axId val="215572072"/>
+        <c:axId val="215559920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="432205304"/>
+        <c:axId val="215572072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2309,7 +1642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432211968"/>
+        <c:crossAx val="215559920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2317,7 +1650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432211968"/>
+        <c:axId val="215559920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2368,7 +1701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432205304"/>
+        <c:crossAx val="215572072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2624,11 +1957,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="432213144"/>
-        <c:axId val="432214712"/>
+        <c:axId val="215573248"/>
+        <c:axId val="215573640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="432213144"/>
+        <c:axId val="215573248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,7 +2004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432214712"/>
+        <c:crossAx val="215573640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2679,7 +2012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432214712"/>
+        <c:axId val="215573640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2731,7 +2064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432213144"/>
+        <c:crossAx val="215573248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3352,11 +2685,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="432207264"/>
-        <c:axId val="432211184"/>
+        <c:axId val="215574816"/>
+        <c:axId val="215575208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="432207264"/>
+        <c:axId val="215574816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3399,7 +2732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432211184"/>
+        <c:crossAx val="215575208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3407,7 +2740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432211184"/>
+        <c:axId val="215575208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3458,7 +2791,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432207264"/>
+        <c:crossAx val="215574816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5284,47 +4617,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42265.353114930556" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
-  <cacheSource type="worksheet">
-    <worksheetSource name="studyblocks" sheet="studyblocks"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="_student" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="_studyGroup" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="a"/>
-        <m u="1"/>
-        <s v="sss" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="_course" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="a"/>
-        <m u="1"/>
-        <s v="sss" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="_learnphase" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="a"/>
-        <m u="1"/>
-        <s v="sss" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="_countSkore" numFmtId="0" formula="IF(#NAME?=0,0,SUM(#NAME?)/SUM(#NAME?))" databaseField="0"/>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42265.353115625003" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42265.943596643519" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
   <cacheSource type="worksheet">
     <worksheetSource name="studydetails" sheet="studydetails"/>
   </cacheSource>
@@ -5391,18 +4684,47 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
-  <r>
-    <s v="a"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42265.943597569443" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+  <cacheSource type="worksheet">
+    <worksheetSource name="studyblocks" sheet="studyblocks"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="_student" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="_studyGroup" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="a"/>
+        <m u="1"/>
+        <s v="sss" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="_course" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="a"/>
+        <m u="1"/>
+        <s v="sss" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="_learnphase" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="a"/>
+        <m u="1"/>
+        <s v="sss" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="_countSkore" numFmtId="0" formula="IF(#NAME?=0,0,SUM(#NAME?)/SUM(#NAME?))" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
   <r>
     <x v="0"/>
@@ -5437,8 +4759,19 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+  <r>
+    <s v="a"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" fieldListSortAscending="1">
   <location ref="B10:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
@@ -5518,7 +4851,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
   <location ref="B10:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
@@ -5622,7 +4955,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="B7:I13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -5716,7 +5049,7 @@
     <dataField name="Odstudováno" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="67">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5725,7 +5058,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -5737,7 +5070,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="34">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -5749,7 +5082,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="33">
       <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5758,14 +5091,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="32">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="31">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5775,7 +5108,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="30">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1">
@@ -5788,7 +5121,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="29">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5798,7 +5131,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="28">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1">
@@ -5811,14 +5144,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5826,14 +5159,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="24">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5843,7 +5176,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1">
@@ -5856,7 +5189,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5866,7 +5199,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1">
@@ -5879,14 +5212,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -5894,7 +5227,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="0"/>
@@ -5905,7 +5238,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="0"/>
@@ -5927,7 +5260,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 4" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
   <location ref="B9:I12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -6005,7 +5338,7 @@
     <dataField name="Odstudováno" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="47">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6014,7 +5347,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -6026,7 +5359,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -6037,7 +5370,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="13">
       <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6185,7 +5518,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 5" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="B7:I16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -6298,7 +5631,7 @@
     <dataField name="Odstudováno" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="43">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6307,7 +5640,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -6319,7 +5652,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -6332,7 +5665,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="0" selected="0"/>
@@ -6343,7 +5676,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="0" selected="0"/>
@@ -6354,7 +5687,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -6365,7 +5698,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -6379,7 +5712,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -6394,7 +5727,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="6">
           <reference field="4294967294" count="1" selected="0">
@@ -6412,7 +5745,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="4">
           <reference field="4294967294" count="1" selected="0">
@@ -6426,7 +5759,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="5">
           <reference field="4294967294" count="1" selected="0">
@@ -6441,7 +5774,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="6">
           <reference field="4294967294" count="1" selected="0">
@@ -6459,7 +5792,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6974,7 +6307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -8428,7 +7761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9:I16"/>
     </sheetView>
   </sheetViews>
